--- a/data/pca/factorExposure/factorExposure_2009-07-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01642864975122104</v>
+        <v>0.01632796761390428</v>
       </c>
       <c r="C2">
-        <v>0.001290691754444225</v>
+        <v>-0.001024390443935442</v>
       </c>
       <c r="D2">
-        <v>0.008160470676005034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009445042388230851</v>
+      </c>
+      <c r="E2">
+        <v>-0.001498903637944273</v>
+      </c>
+      <c r="F2">
+        <v>0.01227057215198294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09044342995116718</v>
+        <v>0.09228502808628512</v>
       </c>
       <c r="C4">
-        <v>0.01970555168331099</v>
+        <v>-0.01470298844743544</v>
       </c>
       <c r="D4">
-        <v>0.07523605299603163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08181858788113928</v>
+      </c>
+      <c r="E4">
+        <v>-0.0264167481658313</v>
+      </c>
+      <c r="F4">
+        <v>-0.03169672933772511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.473841424355611e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6.303310458804009e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5.780228890240977e-05</v>
+      </c>
+      <c r="E5">
+        <v>5.108921931248161e-05</v>
+      </c>
+      <c r="F5">
+        <v>-5.063834714236277e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1528721489657161</v>
+        <v>0.1613529003549587</v>
       </c>
       <c r="C6">
-        <v>0.02951655732435062</v>
+        <v>-0.02854299739366779</v>
       </c>
       <c r="D6">
-        <v>-0.03711109068962493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02732802956803843</v>
+      </c>
+      <c r="E6">
+        <v>-0.00903021330080365</v>
+      </c>
+      <c r="F6">
+        <v>-0.04065785977379414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05999599938738965</v>
+        <v>0.06192452737968975</v>
       </c>
       <c r="C7">
-        <v>0.001796525390818753</v>
+        <v>0.001612462968895021</v>
       </c>
       <c r="D7">
-        <v>0.04870669360468161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0529066318624395</v>
+      </c>
+      <c r="E7">
+        <v>-0.01269238687754674</v>
+      </c>
+      <c r="F7">
+        <v>-0.0493951726702796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0617650171210884</v>
+        <v>0.05759287233171885</v>
       </c>
       <c r="C8">
-        <v>-0.01055062293882696</v>
+        <v>0.01235149676879944</v>
       </c>
       <c r="D8">
-        <v>0.02656329631344463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03029396098952082</v>
+      </c>
+      <c r="E8">
+        <v>-0.01692799613225495</v>
+      </c>
+      <c r="F8">
+        <v>0.02592858685115963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06996049887553671</v>
+        <v>0.07154310508659303</v>
       </c>
       <c r="C9">
-        <v>0.01609347254174703</v>
+        <v>-0.01046282964785131</v>
       </c>
       <c r="D9">
-        <v>0.07633046566709395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08507098086437605</v>
+      </c>
+      <c r="E9">
+        <v>-0.02368753032432272</v>
+      </c>
+      <c r="F9">
+        <v>-0.04822583753779396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0846338055882038</v>
+        <v>0.0872815625924593</v>
       </c>
       <c r="C10">
-        <v>0.01454909363912838</v>
+        <v>-0.02144666998747582</v>
       </c>
       <c r="D10">
-        <v>-0.1661994635262634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1601802793567181</v>
+      </c>
+      <c r="E10">
+        <v>0.03281340574165937</v>
+      </c>
+      <c r="F10">
+        <v>0.05843532436517319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09111347640354286</v>
+        <v>0.08780286264375851</v>
       </c>
       <c r="C11">
-        <v>0.01726099026324258</v>
+        <v>-0.01137637966837596</v>
       </c>
       <c r="D11">
-        <v>0.1102711899196527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1173528294070823</v>
+      </c>
+      <c r="E11">
+        <v>-0.04739669658891758</v>
+      </c>
+      <c r="F11">
+        <v>-0.02381737419224477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09585388268672206</v>
+        <v>0.09033890424893809</v>
       </c>
       <c r="C12">
-        <v>0.01497200625763074</v>
+        <v>-0.008547266021497276</v>
       </c>
       <c r="D12">
-        <v>0.116659930338926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319914465313262</v>
+      </c>
+      <c r="E12">
+        <v>-0.0468798009819496</v>
+      </c>
+      <c r="F12">
+        <v>-0.03065856719769758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04436188073271106</v>
+        <v>0.0436386113918625</v>
       </c>
       <c r="C13">
-        <v>0.006287710540622202</v>
+        <v>-0.002520073317648854</v>
       </c>
       <c r="D13">
-        <v>0.04352857709408869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05365588463722638</v>
+      </c>
+      <c r="E13">
+        <v>0.0004243762450736814</v>
+      </c>
+      <c r="F13">
+        <v>-0.004196653306408853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01905145714753315</v>
+        <v>0.02362631563135659</v>
       </c>
       <c r="C14">
-        <v>0.01501426462323073</v>
+        <v>-0.01374110798116493</v>
       </c>
       <c r="D14">
-        <v>0.02921020800845744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03228533042704385</v>
+      </c>
+      <c r="E14">
+        <v>-0.01786795920645943</v>
+      </c>
+      <c r="F14">
+        <v>-0.01254496647069892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03360925903486515</v>
+        <v>0.03370129583561505</v>
       </c>
       <c r="C15">
-        <v>0.007523120477206037</v>
+        <v>-0.005273012294347105</v>
       </c>
       <c r="D15">
-        <v>0.04262448523992593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04637157785943925</v>
+      </c>
+      <c r="E15">
+        <v>-0.007552892619331929</v>
+      </c>
+      <c r="F15">
+        <v>-0.02952660598539517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07458507391288012</v>
+        <v>0.07258892572526433</v>
       </c>
       <c r="C16">
-        <v>0.007463501544499368</v>
+        <v>-0.001545647667930418</v>
       </c>
       <c r="D16">
-        <v>0.1143573475869276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1281316994328434</v>
+      </c>
+      <c r="E16">
+        <v>-0.06132768991748545</v>
+      </c>
+      <c r="F16">
+        <v>-0.02700691210970959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0004161546290120616</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003552794417740694</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002463818996628094</v>
+      </c>
+      <c r="E17">
+        <v>-0.001498705220486435</v>
+      </c>
+      <c r="F17">
+        <v>0.002716946160932744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02016648218176648</v>
+        <v>0.040302701916672</v>
       </c>
       <c r="C18">
-        <v>-0.002706281980204069</v>
+        <v>0.002694864003963287</v>
       </c>
       <c r="D18">
-        <v>0.02338169343074039</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01549083511403472</v>
+      </c>
+      <c r="E18">
+        <v>0.006662489472260438</v>
+      </c>
+      <c r="F18">
+        <v>0.009905483248730532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06289293634740954</v>
+        <v>0.06224627268838261</v>
       </c>
       <c r="C20">
-        <v>0.005372081907748683</v>
+        <v>-0.0009552201329972104</v>
       </c>
       <c r="D20">
-        <v>0.06964377352516091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07875952257208182</v>
+      </c>
+      <c r="E20">
+        <v>-0.0571839654084744</v>
+      </c>
+      <c r="F20">
+        <v>-0.02966898254100614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03812237101148931</v>
+        <v>0.04039691625848169</v>
       </c>
       <c r="C21">
-        <v>0.00938026106536991</v>
+        <v>-0.006293579199025147</v>
       </c>
       <c r="D21">
-        <v>0.03446091424296878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03676085718260341</v>
+      </c>
+      <c r="E21">
+        <v>0.002239615157980425</v>
+      </c>
+      <c r="F21">
+        <v>0.02604944379418688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04089445694195781</v>
+        <v>0.04433696259133977</v>
       </c>
       <c r="C22">
-        <v>0.001778698147683082</v>
+        <v>-0.001029195326943074</v>
       </c>
       <c r="D22">
-        <v>-0.001673735113149169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007491868153637143</v>
+      </c>
+      <c r="E22">
+        <v>-0.0380837893075209</v>
+      </c>
+      <c r="F22">
+        <v>0.04903968518582834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04085705967003695</v>
+        <v>0.0443127808144611</v>
       </c>
       <c r="C23">
-        <v>0.001768198515205468</v>
+        <v>-0.001020108106082512</v>
       </c>
       <c r="D23">
-        <v>-0.001649646497536148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007506257354196821</v>
+      </c>
+      <c r="E23">
+        <v>-0.03826644606811395</v>
+      </c>
+      <c r="F23">
+        <v>0.04901208459866346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08206261690272501</v>
+        <v>0.07857641337059572</v>
       </c>
       <c r="C24">
-        <v>0.008099519306610046</v>
+        <v>-0.002336519695121273</v>
       </c>
       <c r="D24">
-        <v>0.1155931812808962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1204859519776909</v>
+      </c>
+      <c r="E24">
+        <v>-0.04943978007373567</v>
+      </c>
+      <c r="F24">
+        <v>-0.02956995777052103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08712593124839116</v>
+        <v>0.0835640385422762</v>
       </c>
       <c r="C25">
-        <v>0.01063068230984165</v>
+        <v>-0.005010498900017964</v>
       </c>
       <c r="D25">
-        <v>0.101437168540576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094438684602638</v>
+      </c>
+      <c r="E25">
+        <v>-0.03247095733553892</v>
+      </c>
+      <c r="F25">
+        <v>-0.02687679552784482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05750364322163325</v>
+        <v>0.05976007017823998</v>
       </c>
       <c r="C26">
-        <v>0.01753636772054224</v>
+        <v>-0.01447679202148873</v>
       </c>
       <c r="D26">
-        <v>0.03055835544094627</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04350416912398979</v>
+      </c>
+      <c r="E26">
+        <v>-0.02910438926320903</v>
+      </c>
+      <c r="F26">
+        <v>0.008123460172571737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1340743649268782</v>
+        <v>0.1422412627625969</v>
       </c>
       <c r="C28">
-        <v>0.01381564185102085</v>
+        <v>-0.02325097750565978</v>
       </c>
       <c r="D28">
-        <v>-0.2673750149354106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2607879364503119</v>
+      </c>
+      <c r="E28">
+        <v>0.06842655136852942</v>
+      </c>
+      <c r="F28">
+        <v>-0.004467961658501669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02504446816259079</v>
+        <v>0.02843727262222157</v>
       </c>
       <c r="C29">
-        <v>0.009571667934034101</v>
+        <v>-0.008801686909131662</v>
       </c>
       <c r="D29">
-        <v>0.02788166494275877</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03004301024115325</v>
+      </c>
+      <c r="E29">
+        <v>-0.01251907672120913</v>
+      </c>
+      <c r="F29">
+        <v>0.01361893151426257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06130180903800923</v>
+        <v>0.05859720781096828</v>
       </c>
       <c r="C30">
-        <v>0.008855519575493626</v>
+        <v>-0.002705487366957563</v>
       </c>
       <c r="D30">
-        <v>0.07493085063642679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08719457837499685</v>
+      </c>
+      <c r="E30">
+        <v>-0.01368345901076366</v>
+      </c>
+      <c r="F30">
+        <v>-0.0787108943276217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05046906219623342</v>
+        <v>0.05154804279885877</v>
       </c>
       <c r="C31">
-        <v>0.01727837499324482</v>
+        <v>-0.01613490508505682</v>
       </c>
       <c r="D31">
-        <v>0.02153485583542502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02451684940312962</v>
+      </c>
+      <c r="E31">
+        <v>-0.0284939265136098</v>
+      </c>
+      <c r="F31">
+        <v>0.000245315456065138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04814066203606659</v>
+        <v>0.0522915302484069</v>
       </c>
       <c r="C32">
-        <v>0.002576298927173132</v>
+        <v>0.00129788633445865</v>
       </c>
       <c r="D32">
-        <v>0.02569489070441572</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03431324279974689</v>
+      </c>
+      <c r="E32">
+        <v>-0.03288356029711747</v>
+      </c>
+      <c r="F32">
+        <v>-0.003101612844556153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09022412864466538</v>
+        <v>0.08940011921451251</v>
       </c>
       <c r="C33">
-        <v>0.01322508716636013</v>
+        <v>-0.007087094451395961</v>
       </c>
       <c r="D33">
-        <v>0.0878818737075755</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1033331962156172</v>
+      </c>
+      <c r="E33">
+        <v>-0.04648495774077269</v>
+      </c>
+      <c r="F33">
+        <v>-0.04346466831413733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06887320736211243</v>
+        <v>0.06756040934318329</v>
       </c>
       <c r="C34">
-        <v>0.0156437127032321</v>
+        <v>-0.0105498310238832</v>
       </c>
       <c r="D34">
-        <v>0.09627798706050683</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.109271388074248</v>
+      </c>
+      <c r="E34">
+        <v>-0.03568848441919038</v>
+      </c>
+      <c r="F34">
+        <v>-0.03480327245367797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02511722572930717</v>
+        <v>0.02663038311438211</v>
       </c>
       <c r="C35">
-        <v>0.003688208740150771</v>
+        <v>-0.003032074599758566</v>
       </c>
       <c r="D35">
-        <v>0.008592321778101854</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01226038547602299</v>
+      </c>
+      <c r="E35">
+        <v>-0.01278042671817789</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002245439280725358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02569376758036858</v>
+        <v>0.02789351557890653</v>
       </c>
       <c r="C36">
-        <v>0.007649802130324739</v>
+        <v>-0.006922311030893876</v>
       </c>
       <c r="D36">
-        <v>0.03839095864642923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03889120757401407</v>
+      </c>
+      <c r="E36">
+        <v>-0.01664015352044552</v>
+      </c>
+      <c r="F36">
+        <v>-0.01396485731868059</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001437791105021299</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008544713043998649</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002825355668880067</v>
+      </c>
+      <c r="E37">
+        <v>0.0001054752796583374</v>
+      </c>
+      <c r="F37">
+        <v>0.001718238053486797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1128040807868906</v>
+        <v>0.1014338294846982</v>
       </c>
       <c r="C39">
-        <v>0.0233984278902177</v>
+        <v>-0.01631736474141021</v>
       </c>
       <c r="D39">
-        <v>0.147827058869752</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1507825828710159</v>
+      </c>
+      <c r="E39">
+        <v>-0.05915562390002683</v>
+      </c>
+      <c r="F39">
+        <v>-0.02185136971639715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03804373736085632</v>
+        <v>0.04347349277574873</v>
       </c>
       <c r="C40">
-        <v>0.009221788460441917</v>
+        <v>-0.007584302365276459</v>
       </c>
       <c r="D40">
-        <v>0.02296958561484374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03274655046015406</v>
+      </c>
+      <c r="E40">
+        <v>-0.001985138000107725</v>
+      </c>
+      <c r="F40">
+        <v>0.01709566264979732</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02487792015022482</v>
+        <v>0.0271996669964342</v>
       </c>
       <c r="C41">
-        <v>0.007335766121263628</v>
+        <v>-0.006831272268804587</v>
       </c>
       <c r="D41">
-        <v>0.00969389349349916</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0110517145157514</v>
+      </c>
+      <c r="E41">
+        <v>-0.01190530557811612</v>
+      </c>
+      <c r="F41">
+        <v>0.007391794884841442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04192744856675502</v>
+        <v>0.04003676434679284</v>
       </c>
       <c r="C43">
-        <v>0.008291143736339204</v>
+        <v>-0.007681034196769923</v>
       </c>
       <c r="D43">
-        <v>0.01760790068395816</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0190883981800588</v>
+      </c>
+      <c r="E43">
+        <v>-0.02510687457966928</v>
+      </c>
+      <c r="F43">
+        <v>0.01610041638294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0698151510681729</v>
+        <v>0.07852677360791718</v>
       </c>
       <c r="C44">
-        <v>0.02498164382430124</v>
+        <v>-0.01961131887546835</v>
       </c>
       <c r="D44">
-        <v>0.09830298638385092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09698881627743738</v>
+      </c>
+      <c r="E44">
+        <v>-0.06213635659266623</v>
+      </c>
+      <c r="F44">
+        <v>-0.1693056547188441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02165038171882733</v>
+        <v>0.02482527800807964</v>
       </c>
       <c r="C46">
-        <v>0.004461678991232245</v>
+        <v>-0.003786546009870044</v>
       </c>
       <c r="D46">
-        <v>0.009006047378396021</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01276289230362518</v>
+      </c>
+      <c r="E46">
+        <v>-0.02713330730705074</v>
+      </c>
+      <c r="F46">
+        <v>0.005900259966355017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05204603617861433</v>
+        <v>0.05172417657834098</v>
       </c>
       <c r="C47">
-        <v>0.004922339484512525</v>
+        <v>-0.004325701010243071</v>
       </c>
       <c r="D47">
-        <v>0.007080478276828614</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01079372375507901</v>
+      </c>
+      <c r="E47">
+        <v>-0.0225443301152087</v>
+      </c>
+      <c r="F47">
+        <v>0.03193058333188399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04801324174833466</v>
+        <v>0.05084105048527494</v>
       </c>
       <c r="C48">
-        <v>0.004819584012038085</v>
+        <v>-0.002321230818040983</v>
       </c>
       <c r="D48">
-        <v>0.0458851717809174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04978111035117145</v>
+      </c>
+      <c r="E48">
+        <v>0.005035600486343983</v>
+      </c>
+      <c r="F48">
+        <v>-0.01208842021952803</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.20030993673593</v>
+        <v>0.1999594219534793</v>
       </c>
       <c r="C49">
-        <v>0.022389499651227</v>
+        <v>-0.02059335750052458</v>
       </c>
       <c r="D49">
-        <v>-0.01157712055416795</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004596449225658438</v>
+      </c>
+      <c r="E49">
+        <v>-0.03281971789996088</v>
+      </c>
+      <c r="F49">
+        <v>-0.04836921621118617</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04971765683814774</v>
+        <v>0.05185523309506099</v>
       </c>
       <c r="C50">
-        <v>0.0132355577260578</v>
+        <v>-0.01177841691863534</v>
       </c>
       <c r="D50">
-        <v>0.0206160662886</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02287564824013195</v>
+      </c>
+      <c r="E50">
+        <v>-0.02941222722273811</v>
+      </c>
+      <c r="F50">
+        <v>-0.009982093568143374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1559829761313724</v>
+        <v>0.1494512503023086</v>
       </c>
       <c r="C52">
-        <v>0.020918957990584</v>
+        <v>-0.01906140591270571</v>
       </c>
       <c r="D52">
-        <v>0.04409884669961842</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04265240125198112</v>
+      </c>
+      <c r="E52">
+        <v>-0.0234703581818585</v>
+      </c>
+      <c r="F52">
+        <v>-0.04327727520621127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1749069728074716</v>
+        <v>0.1696957522444815</v>
       </c>
       <c r="C53">
-        <v>0.02148091450966754</v>
+        <v>-0.02192975819731529</v>
       </c>
       <c r="D53">
-        <v>0.00666609805938455</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005953910978726866</v>
+      </c>
+      <c r="E53">
+        <v>-0.03109690852426632</v>
+      </c>
+      <c r="F53">
+        <v>-0.07600032618522869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01643149488459188</v>
+        <v>0.01950366420214304</v>
       </c>
       <c r="C54">
-        <v>0.01217499393552691</v>
+        <v>-0.01092566907426542</v>
       </c>
       <c r="D54">
-        <v>0.02855456146015245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03299347751121938</v>
+      </c>
+      <c r="E54">
+        <v>-0.02089597394704485</v>
+      </c>
+      <c r="F54">
+        <v>0.002770111837304441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.117703491481925</v>
+        <v>0.1161045079771832</v>
       </c>
       <c r="C55">
-        <v>0.01900427036719517</v>
+        <v>-0.01910078501067625</v>
       </c>
       <c r="D55">
-        <v>0.006452442575972145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008457930773650967</v>
+      </c>
+      <c r="E55">
+        <v>-0.02629456848940614</v>
+      </c>
+      <c r="F55">
+        <v>-0.04746716347110044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1812522182660585</v>
+        <v>0.1761072424909743</v>
       </c>
       <c r="C56">
-        <v>0.01945819515688445</v>
+        <v>-0.01995998547690729</v>
       </c>
       <c r="D56">
-        <v>-0.00338918346457101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002918517257789757</v>
+      </c>
+      <c r="E56">
+        <v>-0.0330929222475244</v>
+      </c>
+      <c r="F56">
+        <v>-0.05561652211593609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04937984104322807</v>
+        <v>0.0469157014014591</v>
       </c>
       <c r="C58">
-        <v>0.005768904534108843</v>
+        <v>-0.000390500911165291</v>
       </c>
       <c r="D58">
-        <v>0.06371158415796267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07581120103601371</v>
+      </c>
+      <c r="E58">
+        <v>-0.03659873586774218</v>
+      </c>
+      <c r="F58">
+        <v>0.03711349173386828</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1618668873275397</v>
+        <v>0.1669045149339096</v>
       </c>
       <c r="C59">
-        <v>0.01548656285026296</v>
+        <v>-0.02358927944632773</v>
       </c>
       <c r="D59">
-        <v>-0.2244060419019826</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2180346680994889</v>
+      </c>
+      <c r="E59">
+        <v>0.04927765579457382</v>
+      </c>
+      <c r="F59">
+        <v>0.03908020084801216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2383132432854008</v>
+        <v>0.2302067576834779</v>
       </c>
       <c r="C60">
-        <v>0.003260049403671193</v>
+        <v>-0.0002572740326660767</v>
       </c>
       <c r="D60">
-        <v>0.03807637043338043</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03878913609931973</v>
+      </c>
+      <c r="E60">
+        <v>-0.006127621288590924</v>
+      </c>
+      <c r="F60">
+        <v>-0.005451751591714055</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08377461120270768</v>
+        <v>0.07729392287224165</v>
       </c>
       <c r="C61">
-        <v>0.01721288406779437</v>
+        <v>-0.01156518378560571</v>
       </c>
       <c r="D61">
-        <v>0.1080906443230175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1157869280745401</v>
+      </c>
+      <c r="E61">
+        <v>-0.03779812367446371</v>
+      </c>
+      <c r="F61">
+        <v>-0.008459829884176135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1727522831825074</v>
+        <v>0.1693458894696033</v>
       </c>
       <c r="C62">
-        <v>0.02354874965919309</v>
+        <v>-0.02280239711694163</v>
       </c>
       <c r="D62">
-        <v>0.0007279903333869577</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005861068449319056</v>
+      </c>
+      <c r="E62">
+        <v>-0.03441128515506408</v>
+      </c>
+      <c r="F62">
+        <v>-0.04184679932226158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04158461489782277</v>
+        <v>0.04564241705714575</v>
       </c>
       <c r="C63">
-        <v>0.005536345299072719</v>
+        <v>-0.001753495250362015</v>
       </c>
       <c r="D63">
-        <v>0.04827167733686409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06045364525555037</v>
+      </c>
+      <c r="E63">
+        <v>-0.02408905708624306</v>
+      </c>
+      <c r="F63">
+        <v>-0.001021902135144625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1133365377420899</v>
+        <v>0.1108797110819273</v>
       </c>
       <c r="C64">
-        <v>0.01595247060292169</v>
+        <v>-0.01281808877558915</v>
       </c>
       <c r="D64">
-        <v>0.03203782883839448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04222424009078125</v>
+      </c>
+      <c r="E64">
+        <v>-0.0235015471059497</v>
+      </c>
+      <c r="F64">
+        <v>-0.02516541156491026</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1436915046634863</v>
+        <v>0.1516526508304163</v>
       </c>
       <c r="C65">
-        <v>0.03551067177106604</v>
+        <v>-0.03565825664684519</v>
       </c>
       <c r="D65">
-        <v>-0.06059058884280965</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04707546029852373</v>
+      </c>
+      <c r="E65">
+        <v>-0.006033178086883795</v>
+      </c>
+      <c r="F65">
+        <v>-0.03721736259750601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1359010748720147</v>
+        <v>0.1220303360536305</v>
       </c>
       <c r="C66">
-        <v>0.02189059559373915</v>
+        <v>-0.0147849514085381</v>
       </c>
       <c r="D66">
-        <v>0.1283068610351215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1390645794534139</v>
+      </c>
+      <c r="E66">
+        <v>-0.06425295967024326</v>
+      </c>
+      <c r="F66">
+        <v>-0.02773759220615483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06306442859315918</v>
+        <v>0.055637921904371</v>
       </c>
       <c r="C67">
-        <v>0.006008729732359932</v>
+        <v>-0.003352940949708121</v>
       </c>
       <c r="D67">
-        <v>0.05438382404203056</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05746567580736686</v>
+      </c>
+      <c r="E67">
+        <v>-0.01830053939039576</v>
+      </c>
+      <c r="F67">
+        <v>0.03420011759845294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1069286760736813</v>
+        <v>0.1167913909827533</v>
       </c>
       <c r="C68">
-        <v>0.0236536397150955</v>
+        <v>-0.03399150738392206</v>
       </c>
       <c r="D68">
-        <v>-0.2652090865871803</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2612024630551439</v>
+      </c>
+      <c r="E68">
+        <v>0.08851614392160932</v>
+      </c>
+      <c r="F68">
+        <v>-0.0001045223580825332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03985982045610442</v>
+        <v>0.03860717753027319</v>
       </c>
       <c r="C69">
-        <v>0.002294059610462879</v>
+        <v>-0.001417734332801896</v>
       </c>
       <c r="D69">
-        <v>0.006137127131280494</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008092190899453372</v>
+      </c>
+      <c r="E69">
+        <v>-0.02385262364703291</v>
+      </c>
+      <c r="F69">
+        <v>0.0008237634700405328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06586436405122774</v>
+        <v>0.0670537379198959</v>
       </c>
       <c r="C70">
-        <v>-0.02442823633953431</v>
+        <v>0.02676639675767778</v>
       </c>
       <c r="D70">
-        <v>0.0155232943558867</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0257569518103712</v>
+      </c>
+      <c r="E70">
+        <v>0.03077169224180913</v>
+      </c>
+      <c r="F70">
+        <v>0.181718822117769</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1260269818527981</v>
+        <v>0.1367145413980426</v>
       </c>
       <c r="C71">
-        <v>0.02831762075291136</v>
+        <v>-0.03865197452557444</v>
       </c>
       <c r="D71">
-        <v>-0.2819993264900286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2712742426996537</v>
+      </c>
+      <c r="E71">
+        <v>0.09793010854599736</v>
+      </c>
+      <c r="F71">
+        <v>-0.005773206954967161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1377717722224058</v>
+        <v>0.1445696755505058</v>
       </c>
       <c r="C72">
-        <v>0.02827340147341405</v>
+        <v>-0.02861026078750473</v>
       </c>
       <c r="D72">
-        <v>0.001400617438325055</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004885972664801832</v>
+      </c>
+      <c r="E72">
+        <v>-0.03815879019231705</v>
+      </c>
+      <c r="F72">
+        <v>-0.02808402609339318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2046584264982094</v>
+        <v>0.2034948522978527</v>
       </c>
       <c r="C73">
-        <v>0.01744897925634952</v>
+        <v>-0.01365794129043306</v>
       </c>
       <c r="D73">
-        <v>0.007784318480097698</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01860206119911746</v>
+      </c>
+      <c r="E73">
+        <v>-0.06638937710170954</v>
+      </c>
+      <c r="F73">
+        <v>-0.04206127477350829</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09286989288941185</v>
+        <v>0.0940995313033245</v>
       </c>
       <c r="C74">
-        <v>0.01456322994639711</v>
+        <v>-0.01411368750793722</v>
       </c>
       <c r="D74">
-        <v>0.01577147950979345</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01710690267465628</v>
+      </c>
+      <c r="E74">
+        <v>-0.04416645179947986</v>
+      </c>
+      <c r="F74">
+        <v>-0.05284685155376042</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.134158228079457</v>
+        <v>0.1262962675675356</v>
       </c>
       <c r="C75">
-        <v>0.03127769101780341</v>
+        <v>-0.02978255120213872</v>
       </c>
       <c r="D75">
-        <v>0.02553681270316696</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0290924419450979</v>
+      </c>
+      <c r="E75">
+        <v>-0.05705059604256019</v>
+      </c>
+      <c r="F75">
+        <v>-0.02203111812279565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08230341438573668</v>
+        <v>0.09065631866127705</v>
       </c>
       <c r="C77">
-        <v>0.01475213010920177</v>
+        <v>-0.008736176413425277</v>
       </c>
       <c r="D77">
-        <v>0.1053926748503244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.114645726493098</v>
+      </c>
+      <c r="E77">
+        <v>-0.0451686095333544</v>
+      </c>
+      <c r="F77">
+        <v>-0.03368930167579871</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09948541284207932</v>
+        <v>0.1009498326593316</v>
       </c>
       <c r="C78">
-        <v>0.04428281370854836</v>
+        <v>-0.03920094113522401</v>
       </c>
       <c r="D78">
-        <v>0.1111241125091051</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1107176974052706</v>
+      </c>
+      <c r="E78">
+        <v>-0.07575418332771064</v>
+      </c>
+      <c r="F78">
+        <v>-0.05254198032512433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.16567252291551</v>
+        <v>0.1633635190098396</v>
       </c>
       <c r="C79">
-        <v>0.02611789663790929</v>
+        <v>-0.02502166641695847</v>
       </c>
       <c r="D79">
-        <v>0.008321835220841419</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01276609859660837</v>
+      </c>
+      <c r="E79">
+        <v>-0.04478253133627246</v>
+      </c>
+      <c r="F79">
+        <v>-0.01369180777650936</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08087102540680967</v>
+        <v>0.07961323700940832</v>
       </c>
       <c r="C80">
-        <v>0.001873883920605452</v>
+        <v>0.0004146849793016615</v>
       </c>
       <c r="D80">
-        <v>0.05677293720470107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05342300309745635</v>
+      </c>
+      <c r="E80">
+        <v>-0.03237312580291071</v>
+      </c>
+      <c r="F80">
+        <v>0.02570596071955936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1204132201915314</v>
+        <v>0.1167310684664377</v>
       </c>
       <c r="C81">
-        <v>0.03328083330261503</v>
+        <v>-0.03318105690495315</v>
       </c>
       <c r="D81">
-        <v>0.01365781441703443</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01373564563201905</v>
+      </c>
+      <c r="E81">
+        <v>-0.05459468065720227</v>
+      </c>
+      <c r="F81">
+        <v>-0.01871749193899172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1663183957391114</v>
+        <v>0.1659704949815311</v>
       </c>
       <c r="C82">
-        <v>0.02665156855855847</v>
+        <v>-0.02742878247385206</v>
       </c>
       <c r="D82">
-        <v>0.008571387593382494</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002865682475158824</v>
+      </c>
+      <c r="E82">
+        <v>-0.02918673563374967</v>
+      </c>
+      <c r="F82">
+        <v>-0.08288649319501461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06337913323302945</v>
+        <v>0.05742198975767137</v>
       </c>
       <c r="C83">
-        <v>0.005793356557340199</v>
+        <v>-0.003468378777206996</v>
       </c>
       <c r="D83">
-        <v>0.04259565996898372</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04741274535761813</v>
+      </c>
+      <c r="E83">
+        <v>-0.001115489250666058</v>
+      </c>
+      <c r="F83">
+        <v>0.03560984485052647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06228233360044549</v>
+        <v>0.05689799744558363</v>
       </c>
       <c r="C84">
-        <v>0.01413658666187234</v>
+        <v>-0.01110511519357586</v>
       </c>
       <c r="D84">
-        <v>0.06946295677323265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07199906181572246</v>
+      </c>
+      <c r="E84">
+        <v>-0.01392913416659177</v>
+      </c>
+      <c r="F84">
+        <v>-0.01560407486781009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1391236468937896</v>
+        <v>0.134806697971472</v>
       </c>
       <c r="C85">
-        <v>0.03016245967320473</v>
+        <v>-0.02988264254442714</v>
       </c>
       <c r="D85">
-        <v>0.00879893333108522</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009834253928224674</v>
+      </c>
+      <c r="E85">
+        <v>-0.03694918074864347</v>
+      </c>
+      <c r="F85">
+        <v>-0.04843401985503194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1012271560775951</v>
+        <v>0.09368256799551028</v>
       </c>
       <c r="C86">
-        <v>-0.00262569949726465</v>
+        <v>0.005390167979941967</v>
       </c>
       <c r="D86">
-        <v>0.01246573079038553</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05284559087238616</v>
+      </c>
+      <c r="E86">
+        <v>-0.2236602520083527</v>
+      </c>
+      <c r="F86">
+        <v>0.8977986141954387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09684409027235368</v>
+        <v>0.09287890338523488</v>
       </c>
       <c r="C87">
-        <v>0.02855753544900762</v>
+        <v>-0.01971052899063315</v>
       </c>
       <c r="D87">
-        <v>0.07339115238178168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09534278171485937</v>
+      </c>
+      <c r="E87">
+        <v>0.05210848947248358</v>
+      </c>
+      <c r="F87">
+        <v>-0.05073883705112959</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06184258013145324</v>
+        <v>0.06087631798739479</v>
       </c>
       <c r="C88">
-        <v>0.005458645432550304</v>
+        <v>-0.002824277003444146</v>
       </c>
       <c r="D88">
-        <v>0.05168092411694802</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05018946188863003</v>
+      </c>
+      <c r="E88">
+        <v>-0.02406089206312024</v>
+      </c>
+      <c r="F88">
+        <v>-0.01507381461228687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1180050260520578</v>
+        <v>0.1265397325634732</v>
       </c>
       <c r="C89">
-        <v>0.004810397687410499</v>
+        <v>-0.01388825549313375</v>
       </c>
       <c r="D89">
-        <v>-0.2465896389717648</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2440337721195056</v>
+      </c>
+      <c r="E89">
+        <v>0.09247943189701435</v>
+      </c>
+      <c r="F89">
+        <v>0.007985857636651876</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1386287873310191</v>
+        <v>0.152011826550655</v>
       </c>
       <c r="C90">
-        <v>0.02431145397451934</v>
+        <v>-0.03538740564584669</v>
       </c>
       <c r="D90">
-        <v>-0.266310564540608</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2684289757743148</v>
+      </c>
+      <c r="E90">
+        <v>0.1138345612573207</v>
+      </c>
+      <c r="F90">
+        <v>0.009933034628440402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1214732469158202</v>
+        <v>0.1206052701312641</v>
       </c>
       <c r="C91">
-        <v>0.02090879988197007</v>
+        <v>-0.02145189883670744</v>
       </c>
       <c r="D91">
-        <v>-0.01781329545727227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0165614820050332</v>
+      </c>
+      <c r="E91">
+        <v>-0.05424748847390931</v>
+      </c>
+      <c r="F91">
+        <v>0.001351330837890594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1396730673328979</v>
+        <v>0.1460598322551239</v>
       </c>
       <c r="C92">
-        <v>0.01524926697690438</v>
+        <v>-0.02686235507360476</v>
       </c>
       <c r="D92">
-        <v>-0.2984204863258222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2947439342562434</v>
+      </c>
+      <c r="E92">
+        <v>0.1031848321527271</v>
+      </c>
+      <c r="F92">
+        <v>0.01904149426721661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1406281145561539</v>
+        <v>0.1527424342680157</v>
       </c>
       <c r="C93">
-        <v>0.02057298177795929</v>
+        <v>-0.03038297938371037</v>
       </c>
       <c r="D93">
-        <v>-0.2675515849882245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2645497671807122</v>
+      </c>
+      <c r="E93">
+        <v>0.07619231481270643</v>
+      </c>
+      <c r="F93">
+        <v>-0.001715160149958233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1343718473982689</v>
+        <v>0.1269062230376347</v>
       </c>
       <c r="C94">
-        <v>0.02781183819931863</v>
+        <v>-0.02595659405787229</v>
       </c>
       <c r="D94">
-        <v>0.03896037293759901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04022733931356858</v>
+      </c>
+      <c r="E94">
+        <v>-0.05718719151426517</v>
+      </c>
+      <c r="F94">
+        <v>-0.03308445659477452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.124938180569911</v>
+        <v>0.1281559443838809</v>
       </c>
       <c r="C95">
-        <v>0.01008251171231486</v>
+        <v>-0.00421478886600892</v>
       </c>
       <c r="D95">
-        <v>0.08713904469370133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09812319008656439</v>
+      </c>
+      <c r="E95">
+        <v>-0.05465912978067313</v>
+      </c>
+      <c r="F95">
+        <v>-0.002053934894977323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.124492383638694</v>
+        <v>0.1185669792601796</v>
       </c>
       <c r="C96">
-        <v>-0.9864796785207073</v>
+        <v>0.9861002624653037</v>
       </c>
       <c r="D96">
-        <v>-0.015953379710083</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05185994542874157</v>
+      </c>
+      <c r="E96">
+        <v>-0.05183518374209203</v>
+      </c>
+      <c r="F96">
+        <v>-0.04228935490627315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1957302333635746</v>
+        <v>0.1970082366646887</v>
       </c>
       <c r="C97">
-        <v>-0.003628935957434951</v>
+        <v>0.004340313137325128</v>
       </c>
       <c r="D97">
-        <v>-0.0163203968557632</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02092958418864555</v>
+      </c>
+      <c r="E97">
+        <v>-0.02441583842679551</v>
+      </c>
+      <c r="F97">
+        <v>0.119210693329833</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1983440367427482</v>
+        <v>0.2047422315005537</v>
       </c>
       <c r="C98">
-        <v>0.01181004257565268</v>
+        <v>-0.008047954036611618</v>
       </c>
       <c r="D98">
-        <v>0.01076512154719086</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01569432122421595</v>
+      </c>
+      <c r="E98">
+        <v>0.0757885826298753</v>
+      </c>
+      <c r="F98">
+        <v>0.09256393454202252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0556214555077843</v>
+        <v>0.05543343352753862</v>
       </c>
       <c r="C99">
-        <v>-0.00181913912416606</v>
+        <v>0.003901717230180161</v>
       </c>
       <c r="D99">
-        <v>0.02997398196291022</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03839801294912963</v>
+      </c>
+      <c r="E99">
+        <v>-0.02135128887019779</v>
+      </c>
+      <c r="F99">
+        <v>-0.003847738735780405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1437705606506459</v>
+        <v>0.1309623110574563</v>
       </c>
       <c r="C100">
-        <v>-0.03831376080798355</v>
+        <v>0.05079094608388762</v>
       </c>
       <c r="D100">
-        <v>0.3937167629387077</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3527338953195098</v>
+      </c>
+      <c r="E100">
+        <v>0.8852629973338038</v>
+      </c>
+      <c r="F100">
+        <v>0.1487061637148493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02502318857998314</v>
+        <v>0.02849475196010189</v>
       </c>
       <c r="C101">
-        <v>0.009495145060068686</v>
+        <v>-0.008831659061575979</v>
       </c>
       <c r="D101">
-        <v>0.02744976867922927</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02967590932066332</v>
+      </c>
+      <c r="E101">
+        <v>-0.01199442343005558</v>
+      </c>
+      <c r="F101">
+        <v>0.0149696158891014</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
